--- a/Datos/Database by set/Set with text box/Xlsx sets/Onslaught Promos (PONS).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Onslaught Promos (PONS).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,49 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Silent Specter</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{4}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Creature — Specter</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Whenever Silent Specter deals combat damage to a player, that player discards two cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Morph {3}{B}{B} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4/4</t>
+          <t>('Silent Specter', ['{4}{B}{B}', 'Creature — Specter', 'Flying', 'Whenever Silent Specter deals combat damage to a player, that player discards two cards.', 'Morph {3}{B}{B} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)', '4/4'])</t>
         </is>
       </c>
     </row>
